--- a/output/1Y_P24_1VAL-D.xlsx
+++ b/output/1Y_P24_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>778.1556</v>
       </c>
-      <c r="G2" s="1">
-        <v>778.1556</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.097</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8509</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.097</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E3" s="1">
+        <v>778.1556</v>
+      </c>
       <c r="F3" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G3" s="1">
-        <v>1499.5835</v>
-      </c>
       <c r="H3" s="1">
-        <v>20678.5062</v>
+        <v>10730.3769</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.337</v>
+        <v>10730.3769</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.8509</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20678.5062</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0366</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E4" s="1">
+        <v>1499.5835</v>
+      </c>
       <c r="F4" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G4" s="1">
-        <v>2197.7661</v>
-      </c>
       <c r="H4" s="1">
-        <v>31315.09</v>
+        <v>21366.965</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6502</v>
+        <v>21366.965</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.337</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31315.09</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0208</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E5" s="1">
+        <v>2197.7661</v>
+      </c>
       <c r="F5" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G5" s="1">
-        <v>2900.3044</v>
-      </c>
       <c r="H5" s="1">
-        <v>41068.8899</v>
+        <v>31120.8075</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7917</v>
+        <v>31120.8075</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6502</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41068.8899</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.006</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E6" s="1">
+        <v>2900.3044</v>
+      </c>
       <c r="F6" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G6" s="1">
-        <v>3627.8099</v>
-      </c>
       <c r="H6" s="1">
-        <v>49607.7609</v>
+        <v>39659.632</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7824</v>
+        <v>39659.632</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7917</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49607.7609</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0286</v>
+        <v>-0.0355</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E7" s="1">
+        <v>3627.8099</v>
+      </c>
       <c r="F7" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G7" s="1">
-        <v>4315.9227</v>
-      </c>
       <c r="H7" s="1">
-        <v>62395.7267</v>
+        <v>52447.6104</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.902</v>
+        <v>52447.6104</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.7824</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
-      <c r="L7" s="1">
-        <v>2448.7717</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-7551.2283</v>
+        <v>1957.7054</v>
       </c>
       <c r="O7" s="1">
-        <v>2448.7717</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>64844.4984</v>
+        <v>-8042.2946</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08790000000000001</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E8" s="1">
+        <v>4315.9227</v>
+      </c>
       <c r="F8" s="1">
-        <v>740.5918</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5056.5145</v>
+        <v>734.7681</v>
       </c>
       <c r="H8" s="1">
-        <v>70694.6238</v>
+        <v>60340.4843</v>
       </c>
       <c r="I8" s="1">
-        <v>70408.1286</v>
+        <v>1957.7054</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9242</v>
+        <v>62298.1898</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60326.2842</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.9776</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10408.1286</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2040.6431</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72735.2669</v>
+        <v>-10326.2842</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0282</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E9" s="1">
+        <v>5050.6909</v>
+      </c>
       <c r="F9" s="1">
-        <v>789.2539</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5845.7685</v>
+        <v>783.0476</v>
       </c>
       <c r="H9" s="1">
-        <v>76690.05190000001</v>
+        <v>66259.50840000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80816.25719999999</v>
+        <v>1631.4212</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8247</v>
+        <v>67890.9296</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70652.56849999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9887</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10408.1286</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1632.5145</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78322.5664</v>
+        <v>-10326.2842</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0533</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E10" s="1">
+        <v>5833.7385</v>
+      </c>
       <c r="F10" s="1">
-        <v>797.3256</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6643.094</v>
+        <v>791.0558</v>
       </c>
       <c r="H10" s="1">
-        <v>86267.8835</v>
+        <v>75757.5117</v>
       </c>
       <c r="I10" s="1">
-        <v>91224.3858</v>
+        <v>1305.137</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7322</v>
+        <v>77062.64870000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80978.8527</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8811</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10408.1286</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1224.3858</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87492.2694</v>
+        <v>-10326.2842</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0094</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E11" s="1">
+        <v>6624.7943</v>
+      </c>
       <c r="F11" s="1">
-        <v>751.8531</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7394.9472</v>
+        <v>745.9409000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>101839.5152</v>
+        <v>91233.355</v>
       </c>
       <c r="I11" s="1">
-        <v>101632.5145</v>
+        <v>978.8527</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7435</v>
+        <v>92212.2077</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91305.137</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7823</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10408.1286</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>816.2572</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102655.7724</v>
+        <v>-10326.2842</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.053</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E12" s="1">
+        <v>7370.7353</v>
+      </c>
       <c r="F12" s="1">
-        <v>722.3553000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8117.3025</v>
+        <v>716.6751</v>
       </c>
       <c r="H12" s="1">
-        <v>116352.6021</v>
+        <v>105651.3822</v>
       </c>
       <c r="I12" s="1">
-        <v>112040.6431</v>
+        <v>652.5685</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8027</v>
+        <v>106303.9506</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101631.4212</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7885</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10408.1286</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>408.1286</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116760.7308</v>
+        <v>-10326.2842</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0364</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E13" s="1">
+        <v>8087.4103</v>
+      </c>
       <c r="F13" s="1">
-        <v>696.9511</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8814.2536</v>
+        <v>691.4706</v>
       </c>
       <c r="H13" s="1">
-        <v>130947.1959</v>
+        <v>120148.9939</v>
       </c>
       <c r="I13" s="1">
-        <v>122448.7717</v>
+        <v>326.2842</v>
       </c>
       <c r="J13" s="1">
-        <v>13.8921</v>
+        <v>120475.2782</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111957.7054</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.8435</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10408.1286</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130947.1959</v>
+        <v>-10326.2842</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.033</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E14" s="1">
+        <v>8778.880999999999</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8814.2536</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8087.4103</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139133.8507</v>
       </c>
       <c r="I14" s="1">
-        <v>122448.7717</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.8921</v>
+        <v>139133.8507</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111957.7054</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.7531</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>139694.4611</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>139694.4611</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>139694.4611</v>
+        <v>128174.9399</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0089</v>
+        <v>0.0664</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>12.8509</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>778.1556</v>
       </c>
       <c r="G2" s="1">
-        <v>778.1556</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.097</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8509</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.097</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.8614</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>778.1556</v>
       </c>
       <c r="F3" s="1">
         <v>672.2233</v>
       </c>
       <c r="G3" s="1">
-        <v>1450.3789</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10730.3769</v>
       </c>
       <c r="I3" s="1">
-        <v>19317.956</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3192</v>
+        <v>10730.3769</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9317.956</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.9744</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9317.956</v>
       </c>
-      <c r="O3" s="1">
-        <v>682.044</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20682.044</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0368</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.3229</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1450.3789</v>
       </c>
       <c r="F4" s="1">
         <v>655.0911</v>
       </c>
       <c r="G4" s="1">
-        <v>2105.47</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20665.869</v>
       </c>
       <c r="I4" s="1">
-        <v>28700.7603</v>
+        <v>682.044</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6315</v>
+        <v>21347.913</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18700.7603</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.8937</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9382.8043</v>
       </c>
-      <c r="O4" s="1">
-        <v>1299.2397</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31299.2397</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0201</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.2341</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2105.47</v>
       </c>
       <c r="F5" s="1">
         <v>719.3488</v>
       </c>
       <c r="G5" s="1">
-        <v>2824.8189</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29813.8765</v>
       </c>
       <c r="I5" s="1">
-        <v>38940.0437</v>
+        <v>1299.2397</v>
       </c>
       <c r="J5" s="1">
-        <v>13.785</v>
+        <v>31113.1161</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28940.0437</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.7452</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10239.2834</v>
       </c>
-      <c r="O5" s="1">
-        <v>1059.9563</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41059.9563</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0058</v>
+        <v>-0.0075</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.7456</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2824.8189</v>
       </c>
       <c r="F6" s="1">
         <v>804.6179</v>
       </c>
       <c r="G6" s="1">
-        <v>3629.4368</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49630.0075</v>
+        <v>38627.4205</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1059.9563</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7762</v>
+        <v>39687.3768</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.1602</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11059.9563</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49630.0075</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.028</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.5325</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3629.4368</v>
       </c>
       <c r="F7" s="1">
         <v>520.7731</v>
       </c>
       <c r="G7" s="1">
-        <v>4150.2099</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52471.1306</v>
       </c>
       <c r="I7" s="1">
-        <v>57568.1356</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8711</v>
+        <v>52471.1306</v>
       </c>
       <c r="K7" s="1">
+        <v>47568.1356</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.1062</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
-      <c r="L7" s="1">
-        <v>2449.8698</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5118.2658</v>
+        <v>1906.7527</v>
       </c>
       <c r="O7" s="1">
-        <v>4881.7342</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>64881.7342</v>
+        <v>-5661.3829</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0881</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4150.2099</v>
       </c>
       <c r="F8" s="1">
         <v>856.6208</v>
       </c>
       <c r="G8" s="1">
-        <v>5006.8307</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58023.67</v>
       </c>
       <c r="I8" s="1">
-        <v>69606.9133</v>
+        <v>4338.6171</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9024</v>
+        <v>62362.2871</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59606.9133</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3624</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12038.7776</v>
       </c>
-      <c r="O8" s="1">
-        <v>2842.9566</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72842.9566</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.1873</v>
       </c>
       <c r="E9" s="1">
+        <v>5006.8307</v>
+      </c>
+      <c r="F9" s="1">
+        <v>932.7034</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>973.8883</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5980.719</v>
-      </c>
       <c r="H9" s="1">
-        <v>78460.45450000001</v>
+        <v>65684.1119</v>
       </c>
       <c r="I9" s="1">
-        <v>82449.8698</v>
+        <v>2299.8395</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7859</v>
+        <v>67983.9513</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71906.7527</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.3617</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-12842.9566</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78460.45450000001</v>
+        <v>-12299.8395</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0529</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5939.5341</v>
       </c>
       <c r="F10" s="1">
         <v>766.0605</v>
       </c>
       <c r="G10" s="1">
-        <v>6746.7795</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>87614.3527</v>
+        <v>77131.38430000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92449.8698</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7028</v>
+        <v>77131.38430000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81906.7527</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7901</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87614.3527</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.8433</v>
       </c>
       <c r="E11" s="1">
+        <v>6705.5946</v>
+      </c>
+      <c r="F11" s="1">
+        <v>555.7785</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>514.5937</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7261.3731</v>
-      </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92346.09600000001</v>
       </c>
       <c r="I11" s="1">
-        <v>99573.5444</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7128</v>
+        <v>92346.09600000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89600.5616</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.3621</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-7123.6745</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2876.3255</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102876.3255</v>
+        <v>-7693.8089</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0539</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.4086</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7261.3731</v>
       </c>
       <c r="F12" s="1">
         <v>412.7421</v>
       </c>
       <c r="G12" s="1">
-        <v>7674.1152</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>104083.7962</v>
       </c>
       <c r="I12" s="1">
-        <v>105520.5799</v>
+        <v>2306.1911</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7502</v>
+        <v>106389.9874</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95547.5972</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.1583</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5947.0356</v>
       </c>
-      <c r="O12" s="1">
-        <v>6929.2899</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116929.2899</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0359</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.9338</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7674.1152</v>
       </c>
       <c r="F13" s="1">
         <v>403.2661</v>
       </c>
       <c r="G13" s="1">
-        <v>8077.3813</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114008.9578</v>
       </c>
       <c r="I13" s="1">
-        <v>111542.8753</v>
+        <v>6359.1555</v>
       </c>
       <c r="J13" s="1">
-        <v>13.8093</v>
+        <v>120368.1133</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101569.8925</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.2354</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6022.2953</v>
       </c>
-      <c r="O13" s="1">
-        <v>10906.9946</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130906.9946</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0313</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.9313</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8077.3813</v>
       </c>
       <c r="F14" s="1">
         <v>-8077.3813</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128015.9932</v>
       </c>
       <c r="I14" s="1">
-        <v>111542.8753</v>
+        <v>10336.8602</v>
       </c>
       <c r="J14" s="1">
-        <v>13.8093</v>
+        <v>138352.8534</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101569.8925</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5746</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128015.9932</v>
       </c>
-      <c r="O14" s="1">
-        <v>138922.9878</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138922.9878</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0141</v>
+        <v>0.0612</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>12.8509</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>778.1556</v>
       </c>
       <c r="G2" s="1">
-        <v>778.1556</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.097</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8509</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.097</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.8614</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>778.1556</v>
       </c>
       <c r="F3" s="1">
         <v>675.8492</v>
       </c>
       <c r="G3" s="1">
-        <v>1454.0049</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10730.3769</v>
       </c>
       <c r="I3" s="1">
-        <v>19368.2167</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3206</v>
+        <v>10730.3769</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9368.216700000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.039</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9368.216700000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>631.7833000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20681.7833</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0368</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.3229</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1454.0049</v>
       </c>
       <c r="F4" s="1">
         <v>662.01</v>
       </c>
       <c r="G4" s="1">
-        <v>2116.0149</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20717.5336</v>
       </c>
       <c r="I4" s="1">
-        <v>28850.1204</v>
+        <v>631.7833000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6342</v>
+        <v>21349.3169</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18850.1204</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.9643</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9481.903700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1149.8796</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31300.1296</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0202</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.2341</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2116.0149</v>
       </c>
       <c r="F5" s="1">
         <v>730.0608</v>
       </c>
       <c r="G5" s="1">
-        <v>2846.0757</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29963.1943</v>
       </c>
       <c r="I5" s="1">
-        <v>39241.8789</v>
+        <v>1149.8796</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7881</v>
+        <v>31113.0739</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29241.8789</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.8193</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10391.7585</v>
       </c>
-      <c r="O5" s="1">
-        <v>758.1211</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41059.1224</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0058</v>
+        <v>-0.0075</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.7456</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2846.0757</v>
       </c>
       <c r="F6" s="1">
         <v>782.6593</v>
       </c>
       <c r="G6" s="1">
-        <v>3628.735</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49620.4106</v>
+        <v>38918.0931</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>758.1211</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7789</v>
+        <v>39676.2142</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.0544</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10758.1211</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49620.4106</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0282</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.5325</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3628.735</v>
       </c>
       <c r="F7" s="1">
         <v>573.6997</v>
       </c>
       <c r="G7" s="1">
-        <v>4202.4347</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52460.9843</v>
       </c>
       <c r="I7" s="1">
-        <v>58337.2914</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8818</v>
+        <v>52460.9843</v>
       </c>
       <c r="K7" s="1">
+        <v>48337.2914</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.3207</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
-      <c r="L7" s="1">
-        <v>2449.3961</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5887.8953</v>
+        <v>1921.1011</v>
       </c>
       <c r="O7" s="1">
-        <v>4112.1047</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>64867.1235</v>
+        <v>-6416.1903</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08799999999999999</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4202.4347</v>
       </c>
       <c r="F8" s="1">
         <v>880.1275000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5082.5622</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>58753.8194</v>
       </c>
       <c r="I8" s="1">
-        <v>70706.42720000001</v>
+        <v>3583.8097</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9116</v>
+        <v>62337.6291</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60706.4272</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.4455</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12369.1358</v>
       </c>
-      <c r="O8" s="1">
-        <v>1742.9689</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72801.7628</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0276</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.1873</v>
       </c>
       <c r="E9" s="1">
+        <v>5082.5622</v>
+      </c>
+      <c r="F9" s="1">
+        <v>850.4147</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>890.4756</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5973.0378</v>
-      </c>
       <c r="H9" s="1">
-        <v>78359.6856</v>
+        <v>66677.6253</v>
       </c>
       <c r="I9" s="1">
-        <v>82449.3961</v>
+        <v>1214.6739</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8036</v>
+        <v>67892.2991</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71921.1011</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.1506</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11742.9689</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78359.6856</v>
+        <v>-11214.6739</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0536</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5932.9769</v>
       </c>
       <c r="F10" s="1">
         <v>766.0605</v>
       </c>
       <c r="G10" s="1">
-        <v>6739.0983</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87514.6039</v>
+        <v>77046.2314</v>
       </c>
       <c r="I10" s="1">
-        <v>92449.3961</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7184</v>
+        <v>77046.2314</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81921.1011</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8078</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87514.6039</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.8433</v>
       </c>
       <c r="E11" s="1">
+        <v>6699.0374</v>
+      </c>
+      <c r="F11" s="1">
+        <v>722.3711</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>687.8534</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7426.9516</v>
-      </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92255.7931</v>
       </c>
       <c r="I11" s="1">
-        <v>101971.5564</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7299</v>
+        <v>92255.7931</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91921.1011</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7215</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9522.1603</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>477.8397</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102758.1038</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0538</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.4086</v>
       </c>
       <c r="E12" s="1">
+        <v>7421.4085</v>
+      </c>
+      <c r="F12" s="1">
+        <v>447.4664</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>441.9233</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7868.8749</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106377.727</v>
       </c>
       <c r="I12" s="1">
-        <v>108339.0518</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.768</v>
+        <v>106377.727</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98368.4653</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.2547</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-6367.4954</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>4110.3443</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116902.0097</v>
+        <v>-6447.3642</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0368</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.9338</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7868.8749</v>
       </c>
       <c r="F13" s="1">
         <v>434.3786</v>
       </c>
       <c r="G13" s="1">
-        <v>8303.2534</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116902.3656</v>
       </c>
       <c r="I13" s="1">
-        <v>114825.9742</v>
+        <v>3552.6358</v>
       </c>
       <c r="J13" s="1">
-        <v>13.829</v>
+        <v>120455.0015</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104855.3877</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.3253</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6486.9224</v>
       </c>
-      <c r="O13" s="1">
-        <v>7623.4219</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130979.0456</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0321</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>15.9313</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8303.2534</v>
       </c>
       <c r="F14" s="1">
         <v>-8303.2534</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131595.7724</v>
       </c>
       <c r="I14" s="1">
-        <v>114825.9742</v>
+        <v>7065.7134</v>
       </c>
       <c r="J14" s="1">
-        <v>13.829</v>
+        <v>138661.4858</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104855.3877</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6282</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131595.7724</v>
       </c>
-      <c r="O14" s="1">
-        <v>139219.1943</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139219.1943</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0125</v>
+        <v>0.0629</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>12.8509</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>778.1556</v>
       </c>
       <c r="G2" s="1">
-        <v>778.1556</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.097</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8509</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.097</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.8614</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>778.1556</v>
       </c>
       <c r="F3" s="1">
         <v>679.4752</v>
       </c>
       <c r="G3" s="1">
-        <v>1457.6308</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10730.3769</v>
       </c>
       <c r="I3" s="1">
-        <v>19418.4774</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3219</v>
+        <v>10730.3769</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9418.4774</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.1036</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9418.4774</v>
       </c>
-      <c r="O3" s="1">
-        <v>581.5226</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20681.5226</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0368</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.3229</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1457.6308</v>
       </c>
       <c r="F4" s="1">
         <v>668.9641</v>
       </c>
       <c r="G4" s="1">
-        <v>2126.5949</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20769.1983</v>
       </c>
       <c r="I4" s="1">
-        <v>28999.9831</v>
+        <v>581.5226</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6368</v>
+        <v>21350.7209</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18999.9831</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.0348</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9581.5057</v>
       </c>
-      <c r="O4" s="1">
-        <v>1000.0169</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31301.0169</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0202</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.2341</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2126.5949</v>
       </c>
       <c r="F5" s="1">
         <v>740.8794</v>
       </c>
       <c r="G5" s="1">
-        <v>2867.4743</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30113.009</v>
       </c>
       <c r="I5" s="1">
-        <v>39545.7351</v>
+        <v>1000.0169</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7911</v>
+        <v>31113.0259</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29545.7351</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.8934</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10545.752</v>
       </c>
-      <c r="O5" s="1">
-        <v>454.2649</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41058.2749</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0059</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.7456</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2867.4743</v>
       </c>
       <c r="F6" s="1">
         <v>760.5536</v>
       </c>
       <c r="G6" s="1">
-        <v>3628.0279</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49610.7416</v>
+        <v>39210.7042</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>454.2649</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7816</v>
+        <v>39664.9691</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.9496</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10454.2649</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49610.7416</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0284</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.5325</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3628.0279</v>
       </c>
       <c r="F7" s="1">
         <v>627.3311</v>
       </c>
       <c r="G7" s="1">
-        <v>4255.359</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52450.7619</v>
       </c>
       <c r="I7" s="1">
-        <v>59116.6895</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8923</v>
+        <v>52450.7619</v>
       </c>
       <c r="K7" s="1">
+        <v>49116.6895</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.5381</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
-      <c r="L7" s="1">
-        <v>2448.9188</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-6667.7707</v>
+        <v>1935.5452</v>
       </c>
       <c r="O7" s="1">
-        <v>3332.2293</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>64852.3799</v>
+        <v>-7181.1443</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08790000000000001</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4255.359</v>
       </c>
       <c r="F8" s="1">
         <v>904.2053</v>
       </c>
       <c r="G8" s="1">
-        <v>5159.5643</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>59493.7486</v>
       </c>
       <c r="I8" s="1">
-        <v>71824.2095</v>
+        <v>2818.8557</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9206</v>
+        <v>62312.6043</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61824.2095</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.5286</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12707.52</v>
       </c>
-      <c r="O8" s="1">
-        <v>624.7093</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72760.06140000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.028</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.1873</v>
       </c>
       <c r="E9" s="1">
+        <v>5159.5643</v>
+      </c>
+      <c r="F9" s="1">
+        <v>766.748</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>805.6774</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5965.2416</v>
-      </c>
       <c r="H9" s="1">
-        <v>78257.4087</v>
+        <v>67687.8077</v>
       </c>
       <c r="I9" s="1">
-        <v>82448.9188</v>
+        <v>111.3356</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8216</v>
+        <v>67799.1434</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71935.54519999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9422</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10624.7093</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78257.4087</v>
+        <v>-10111.3356</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0544</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5926.3123</v>
       </c>
       <c r="F10" s="1">
         <v>766.0605</v>
       </c>
       <c r="G10" s="1">
-        <v>6731.3021</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87413.36229999999</v>
+        <v>76959.6835</v>
       </c>
       <c r="I10" s="1">
-        <v>92448.9188</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7342</v>
+        <v>76959.6835</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81935.54519999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8257</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87413.36229999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.8433</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6692.3727</v>
       </c>
       <c r="F11" s="1">
         <v>722.3711</v>
       </c>
       <c r="G11" s="1">
-        <v>7453.6732</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102648.2607</v>
+        <v>92164.0108</v>
       </c>
       <c r="I11" s="1">
-        <v>102448.9188</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7448</v>
+        <v>92164.0108</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91935.54519999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7374</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102648.2607</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0537</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.4086</v>
       </c>
       <c r="E12" s="1">
+        <v>7414.7438</v>
+      </c>
+      <c r="F12" s="1">
+        <v>654.8218000000001</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>615.8924</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8069.5656</v>
-      </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>106282.1964</v>
       </c>
       <c r="I12" s="1">
-        <v>111323.0661</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7954</v>
+        <v>106282.1964</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101370.6106</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6715</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-8874.147300000001</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1125.8527</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116794.1994</v>
+        <v>-9435.065399999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0368</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.9338</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8069.5656</v>
       </c>
       <c r="F13" s="1">
         <v>467.2188</v>
       </c>
       <c r="G13" s="1">
-        <v>8536.7844</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119883.8877</v>
       </c>
       <c r="I13" s="1">
-        <v>118300.418</v>
+        <v>564.9346</v>
       </c>
       <c r="J13" s="1">
-        <v>13.8577</v>
+        <v>120448.8223</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108347.9624</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.4267</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6977.3518</v>
       </c>
-      <c r="O13" s="1">
-        <v>4148.5009</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130973.531</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.033</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>15.9313</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8536.7844</v>
       </c>
       <c r="F14" s="1">
         <v>-8536.7844</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135296.935</v>
       </c>
       <c r="I14" s="1">
-        <v>118300.418</v>
+        <v>3587.5827</v>
       </c>
       <c r="J14" s="1">
-        <v>13.8577</v>
+        <v>138884.5177</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108347.9624</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6919</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135296.935</v>
       </c>
-      <c r="O14" s="1">
-        <v>139445.4358</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139445.4358</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0108</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>12.8509</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>778.1556</v>
       </c>
       <c r="G2" s="1">
-        <v>778.1556</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.097</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8509</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.097</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.8614</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>778.1556</v>
       </c>
       <c r="F3" s="1">
         <v>683.1011</v>
       </c>
       <c r="G3" s="1">
-        <v>1461.2568</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10730.3769</v>
       </c>
       <c r="I3" s="1">
-        <v>19468.7381</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3233</v>
+        <v>10730.3769</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9468.7381</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.1682</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9468.7381</v>
       </c>
-      <c r="O3" s="1">
-        <v>531.2619</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20681.2619</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0368</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.3229</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1461.2568</v>
       </c>
       <c r="F4" s="1">
         <v>675.9532</v>
       </c>
       <c r="G4" s="1">
-        <v>2137.21</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20820.863</v>
       </c>
       <c r="I4" s="1">
-        <v>29150.3485</v>
+        <v>531.2619</v>
       </c>
       <c r="J4" s="1">
-        <v>13.6394</v>
+        <v>21352.1249</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19150.3485</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.1054</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9681.6103</v>
       </c>
-      <c r="O4" s="1">
-        <v>849.6515000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31301.9015</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0202</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.2341</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2137.21</v>
       </c>
       <c r="F5" s="1">
         <v>751.8053</v>
       </c>
       <c r="G5" s="1">
-        <v>2889.0153</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30263.3206</v>
       </c>
       <c r="I5" s="1">
-        <v>39851.62</v>
+        <v>849.6515000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7942</v>
+        <v>31112.9722</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29851.62</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9676</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10701.2715</v>
       </c>
-      <c r="O5" s="1">
-        <v>148.38</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41057.4138</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0059</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.7456</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2889.0153</v>
       </c>
       <c r="F6" s="1">
         <v>738.3003</v>
       </c>
       <c r="G6" s="1">
-        <v>3627.3155</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49601.0005</v>
+        <v>39505.2612</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>148.38</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7843</v>
+        <v>39653.6413</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8455</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10148.38</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49601.0005</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0285</v>
+        <v>-0.0355</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.5325</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3627.3155</v>
       </c>
       <c r="F7" s="1">
         <v>681.6752</v>
       </c>
       <c r="G7" s="1">
-        <v>4308.9907</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52440.463</v>
       </c>
       <c r="I7" s="1">
-        <v>59906.4446</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.9027</v>
+        <v>52440.463</v>
       </c>
       <c r="K7" s="1">
+        <v>49906.4446</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.7585</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
-      <c r="L7" s="1">
-        <v>2448.438</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-7458.0066</v>
+        <v>1950.0853</v>
       </c>
       <c r="O7" s="1">
-        <v>2541.9934</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>64837.5027</v>
+        <v>-7956.3593</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08790000000000001</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.0538</v>
       </c>
       <c r="E8" s="1">
+        <v>4308.9907</v>
+      </c>
+      <c r="F8" s="1">
+        <v>856.9669</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>892.4272</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5201.4179</v>
-      </c>
       <c r="H8" s="1">
-        <v>72720.5034</v>
+        <v>60243.5679</v>
       </c>
       <c r="I8" s="1">
-        <v>72448.43799999999</v>
+        <v>2043.6407</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9286</v>
+        <v>62287.2086</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61950.0853</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3769</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-12541.9934</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72720.5034</v>
+        <v>-12043.6407</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0283</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.1873</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5165.9575</v>
       </c>
       <c r="F9" s="1">
         <v>758.3053</v>
       </c>
       <c r="G9" s="1">
-        <v>5959.7232</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>78185.0131</v>
+        <v>67771.6804</v>
       </c>
       <c r="I9" s="1">
-        <v>82448.43799999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8343</v>
+        <v>67771.6804</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71950.08530000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9277</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78185.0131</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0548</v>
+        <v>-0.0625</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5924.2629</v>
       </c>
       <c r="F10" s="1">
         <v>766.0605</v>
       </c>
       <c r="G10" s="1">
-        <v>6725.7837</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87341.6995</v>
+        <v>76933.0702</v>
       </c>
       <c r="I10" s="1">
-        <v>92448.43799999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7454</v>
+        <v>76933.0702</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81950.08530000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.833</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87341.6995</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.8433</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6690.3233</v>
       </c>
       <c r="F11" s="1">
         <v>722.3711</v>
       </c>
       <c r="G11" s="1">
-        <v>7448.1548</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>102572.2638</v>
+        <v>92135.78780000001</v>
       </c>
       <c r="I11" s="1">
-        <v>102448.438</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7549</v>
+        <v>92135.78780000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91950.08530000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7437</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102572.2638</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0537</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.4086</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7412.6944</v>
       </c>
       <c r="F12" s="1">
         <v>694.03</v>
       </c>
       <c r="G12" s="1">
-        <v>8142.1848</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116709.262</v>
+        <v>106252.8209</v>
       </c>
       <c r="I12" s="1">
-        <v>112448.438</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8106</v>
+        <v>106252.8209</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101950.0853</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7534</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116709.262</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0367</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.9338</v>
       </c>
       <c r="E13" s="1">
+        <v>8106.7244</v>
+      </c>
+      <c r="F13" s="1">
+        <v>671.5121</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>636.0517</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8778.236500000001</v>
-      </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>120435.9297</v>
       </c>
       <c r="I13" s="1">
-        <v>121947.107</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.892</v>
+        <v>120435.9297</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111978.3121</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.813</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-9498.669</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>501.331</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130913.4453</v>
+        <v>-10028.2268</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0332</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>15.9313</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8778.236500000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8778.236500000001</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139123.6362</v>
       </c>
       <c r="I14" s="1">
-        <v>121947.107</v>
+        <v>-28.2268</v>
       </c>
       <c r="J14" s="1">
-        <v>13.892</v>
+        <v>139095.4094</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111978.3121</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.7564</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>139123.6362</v>
       </c>
-      <c r="O14" s="1">
-        <v>139624.9672</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139624.9672</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0091</v>
+        <v>0.0664</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4454,7 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.8884</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8921</v>
+        <v>12.7531</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8093</v>
+        <v>12.5746</v>
       </c>
       <c r="E3" s="1">
-        <v>13.829</v>
+        <v>12.6282</v>
       </c>
       <c r="F3" s="1">
-        <v>13.8577</v>
+        <v>12.6919</v>
       </c>
       <c r="G3" s="1">
-        <v>13.892</v>
+        <v>12.7564</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2285</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1333</v>
+        <v>0.2439</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1286</v>
+        <v>0.2383</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1303</v>
+        <v>0.2403</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1314</v>
+        <v>0.2415</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1322</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1534</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1338</v>
+        <v>0.1429</v>
       </c>
       <c r="D5" s="3">
-        <v>0.134</v>
+        <v>0.1405</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1345</v>
+        <v>0.1419</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1348</v>
+        <v>0.1432</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1349</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3569</v>
       </c>
       <c r="C6" s="4">
-        <v>0.8444</v>
+        <v>1.5647</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8076</v>
+        <v>1.5516</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8179</v>
+        <v>1.5505</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8241000000000001</v>
+        <v>1.5445</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8298</v>
+        <v>1.5459</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.32</v>
+        <v>0.1293</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3163</v>
+        <v>0.3053</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3169</v>
+        <v>0.3063</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3169</v>
+        <v>0.3065</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3172</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2448.7717</v>
+        <v>1957.7054</v>
       </c>
       <c r="D8" s="1">
-        <v>2449.8698</v>
+        <v>1906.7527</v>
       </c>
       <c r="E8" s="1">
-        <v>2449.3961</v>
+        <v>1921.1011</v>
       </c>
       <c r="F8" s="1">
-        <v>2448.9188</v>
+        <v>1935.5452</v>
       </c>
       <c r="G8" s="1">
-        <v>2448.438</v>
+        <v>1950.0853</v>
       </c>
     </row>
   </sheetData>
